--- a/test_result_data/hasil_uji_Rata-Rata Random Forest.xlsx
+++ b/test_result_data/hasil_uji_Rata-Rata Random Forest.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.369047619047619</v>
+        <v>0.6599999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2346666666666667</v>
+        <v>0.08088888888888889</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2624708624708624</v>
+        <v>0.1395138195138195</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.74</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_Rata-Rata Random Forest.xlsx
+++ b/test_result_data/hasil_uji_Rata-Rata Random Forest.xlsx
@@ -442,11 +442,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Presisi</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.8133840646638021</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08088888888888889</v>
+        <v>0.9050563784835968</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1395138195138195</v>
+        <v>0.846901528802593</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.7566666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_Rata-Rata Random Forest.xlsx
+++ b/test_result_data/hasil_uji_Rata-Rata Random Forest.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8133840646638021</v>
+        <v>0.8121414511414511</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9050563784835968</v>
+        <v>0.9331624175093767</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.846901528802593</v>
+        <v>0.8594791563227119</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7566666666666667</v>
+        <v>0.7733333333333332</v>
       </c>
     </row>
   </sheetData>
